--- a/output/3Y_P17_KFSDIV.xlsx
+++ b/output/3Y_P17_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -3627,10 +3630,10 @@
         <v>143329.3261</v>
       </c>
       <c r="K15" s="1">
-        <v>119746.3536</v>
+        <v>119756.9375</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3911</v>
+        <v>13.3922</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -3680,10 +3683,10 @@
         <v>140284.5208</v>
       </c>
       <c r="K16" s="1">
-        <v>135205.6771</v>
+        <v>135216.2611</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4569</v>
+        <v>13.458</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -3733,10 +3736,10 @@
         <v>151941.9255</v>
       </c>
       <c r="K17" s="1">
-        <v>162321.0565</v>
+        <v>162331.6405</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2469</v>
+        <v>13.2478</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -3786,10 +3789,10 @@
         <v>161744.8205</v>
       </c>
       <c r="K18" s="1">
-        <v>170588.3692</v>
+        <v>170598.9532</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2051</v>
+        <v>13.206</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -3839,10 +3842,10 @@
         <v>184424.3299</v>
       </c>
       <c r="K19" s="1">
-        <v>180793.1777</v>
+        <v>180803.7616</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1583</v>
+        <v>13.1591</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -3892,10 +3895,10 @@
         <v>200709.9182</v>
       </c>
       <c r="K20" s="1">
-        <v>183898.5915</v>
+        <v>183909.1755</v>
       </c>
       <c r="L20" s="1">
-        <v>13.1544</v>
+        <v>13.1551</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -3945,10 +3948,10 @@
         <v>218203.2353</v>
       </c>
       <c r="K21" s="1">
-        <v>187615.4461</v>
+        <v>187626.03</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1588</v>
+        <v>13.1595</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -3998,10 +4001,10 @@
         <v>245365.3663</v>
       </c>
       <c r="K22" s="1">
-        <v>190117.268</v>
+        <v>190127.8519</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1681</v>
+        <v>13.1688</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -4051,10 +4054,10 @@
         <v>265943.338</v>
       </c>
       <c r="K23" s="1">
-        <v>189358.1344</v>
+        <v>189371.7484</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1627</v>
+        <v>13.1637</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -4104,10 +4107,10 @@
         <v>254571.6471</v>
       </c>
       <c r="K24" s="1">
-        <v>188777.8444</v>
+        <v>188793.7767</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1569</v>
+        <v>13.158</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -4157,10 +4160,10 @@
         <v>275115.9939</v>
       </c>
       <c r="K25" s="1">
-        <v>220275.3085</v>
+        <v>220291.2408</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2581</v>
+        <v>13.259</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -4210,10 +4213,10 @@
         <v>286250.4947</v>
       </c>
       <c r="K26" s="1">
-        <v>226085.0851</v>
+        <v>226101.0173</v>
       </c>
       <c r="L26" s="1">
-        <v>13.2797</v>
+        <v>13.2806</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -4263,10 +4266,10 @@
         <v>294880.7634</v>
       </c>
       <c r="K27" s="1">
-        <v>234962.8486</v>
+        <v>234978.7808</v>
       </c>
       <c r="L27" s="1">
-        <v>13.313</v>
+        <v>13.3139</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -4316,10 +4319,10 @@
         <v>335124.7192</v>
       </c>
       <c r="K28" s="1">
-        <v>246342.5748</v>
+        <v>246358.5071</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3493</v>
+        <v>13.3502</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -4369,10 +4372,10 @@
         <v>345699.9983</v>
       </c>
       <c r="K29" s="1">
-        <v>233945.729</v>
+        <v>234011.2106</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2573</v>
+        <v>13.261</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -4422,10 +4425,10 @@
         <v>342557.9112</v>
       </c>
       <c r="K30" s="1">
-        <v>243408.2521</v>
+        <v>243473.7336</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3292</v>
+        <v>13.3328</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -4475,10 +4478,10 @@
         <v>385559.8292</v>
       </c>
       <c r="K31" s="1">
-        <v>266605.1729</v>
+        <v>266670.6544</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4363</v>
+        <v>13.4396</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -4528,10 +4531,10 @@
         <v>409310.7189</v>
       </c>
       <c r="K32" s="1">
-        <v>259919.0436</v>
+        <v>260011.2404</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3902</v>
+        <v>13.3949</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -4581,10 +4584,10 @@
         <v>423725.7554</v>
       </c>
       <c r="K33" s="1">
-        <v>256153.1164</v>
+        <v>256260.3507</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3558</v>
+        <v>13.3614</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -4634,10 +4637,10 @@
         <v>459907.1443</v>
       </c>
       <c r="K34" s="1">
-        <v>261760.4626</v>
+        <v>261867.6969</v>
       </c>
       <c r="L34" s="1">
-        <v>13.41</v>
+        <v>13.4155</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -4687,10 +4690,10 @@
         <v>465708.8874</v>
       </c>
       <c r="K35" s="1">
-        <v>258489.5346</v>
+        <v>258609.8402</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3732</v>
+        <v>13.3794</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -4740,10 +4743,10 @@
         <v>483204.424</v>
       </c>
       <c r="K36" s="1">
-        <v>272744.7341</v>
+        <v>272865.0397</v>
       </c>
       <c r="L36" s="1">
-        <v>13.5214</v>
+        <v>13.5274</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -4793,10 +4796,10 @@
         <v>471512.2562</v>
       </c>
       <c r="K37" s="1">
-        <v>292667.9997</v>
+        <v>292788.3053</v>
       </c>
       <c r="L37" s="1">
-        <v>13.6865</v>
+        <v>13.6921</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -4846,10 +4849,10 @@
         <v>463815.499</v>
       </c>
       <c r="K38" s="1">
-        <v>324407.3196</v>
+        <v>324527.6252</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8386</v>
+        <v>13.8437</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -5667,10 +5670,10 @@
         <v>143490.5471</v>
       </c>
       <c r="K15" s="1">
-        <v>123484.1808</v>
+        <v>123493.7086</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3996</v>
+        <v>13.4006</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -5720,10 +5723,10 @@
         <v>140001.4171</v>
       </c>
       <c r="K16" s="1">
-        <v>139781.648</v>
+        <v>139791.1759</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4659</v>
+        <v>13.4668</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -5773,10 +5776,10 @@
         <v>151674.4799</v>
       </c>
       <c r="K17" s="1">
-        <v>162711.7932</v>
+        <v>162721.3211</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2868</v>
+        <v>13.2876</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -5826,10 +5829,10 @@
         <v>161468.7739</v>
       </c>
       <c r="K18" s="1">
-        <v>172711.7932</v>
+        <v>172721.3211</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2343</v>
+        <v>13.235</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -5879,10 +5882,10 @@
         <v>184266.5408</v>
       </c>
       <c r="K19" s="1">
-        <v>182711.7932</v>
+        <v>182721.3211</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1871</v>
+        <v>13.1878</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -5932,10 +5935,10 @@
         <v>200801.486</v>
       </c>
       <c r="K20" s="1">
-        <v>192213.7689</v>
+        <v>192223.2967</v>
       </c>
       <c r="L20" s="1">
-        <v>13.174</v>
+        <v>13.1747</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -5985,10 +5988,10 @@
         <v>218639.7713</v>
       </c>
       <c r="K21" s="1">
-        <v>196597.6412</v>
+        <v>196607.1691</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1786</v>
+        <v>13.1792</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -6038,10 +6041,10 @@
         <v>246622.9492</v>
       </c>
       <c r="K22" s="1">
-        <v>199748.4078</v>
+        <v>199757.9357</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1895</v>
+        <v>13.1901</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -6091,10 +6094,10 @@
         <v>267746.9513</v>
       </c>
       <c r="K23" s="1">
-        <v>199513.75</v>
+        <v>199524.2145</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1879</v>
+        <v>13.1886</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -6144,10 +6147,10 @@
         <v>255214.9416</v>
       </c>
       <c r="K24" s="1">
-        <v>199493.8691</v>
+        <v>199504.413</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1877</v>
+        <v>13.1884</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -6197,10 +6200,10 @@
         <v>276340.5919</v>
       </c>
       <c r="K25" s="1">
-        <v>233320.6748</v>
+        <v>233331.2188</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2863</v>
+        <v>13.2869</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -6250,10 +6253,10 @@
         <v>287540.2566</v>
       </c>
       <c r="K26" s="1">
-        <v>240109.8258</v>
+        <v>240120.3697</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3094</v>
+        <v>13.3099</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -6303,10 +6306,10 @@
         <v>296082.4919</v>
       </c>
       <c r="K27" s="1">
-        <v>250194.9355</v>
+        <v>250205.4794</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3439</v>
+        <v>13.3444</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -6356,10 +6359,10 @@
         <v>338270.3117</v>
       </c>
       <c r="K28" s="1">
-        <v>262991.4879</v>
+        <v>263002.0319</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3808</v>
+        <v>13.3813</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -6409,10 +6412,10 @@
         <v>348884.5898</v>
       </c>
       <c r="K29" s="1">
-        <v>250524.7418</v>
+        <v>250585.1144</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2955</v>
+        <v>13.2987</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -6462,10 +6465,10 @@
         <v>344812.781</v>
       </c>
       <c r="K30" s="1">
-        <v>261395.4098</v>
+        <v>261455.7824</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3713</v>
+        <v>13.3744</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -6515,10 +6518,10 @@
         <v>390184.3536</v>
       </c>
       <c r="K31" s="1">
-        <v>287024.8673</v>
+        <v>287085.2399</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4781</v>
+        <v>13.481</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -6568,10 +6571,10 @@
         <v>414980.3185</v>
       </c>
       <c r="K32" s="1">
-        <v>280675.9199</v>
+        <v>280761.6604</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4382</v>
+        <v>13.4423</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -6621,10 +6624,10 @@
         <v>429743.0628</v>
       </c>
       <c r="K33" s="1">
-        <v>277481.1991</v>
+        <v>277579.6964</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4116</v>
+        <v>13.4164</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -6674,10 +6677,10 @@
         <v>468019.4783</v>
       </c>
       <c r="K34" s="1">
-        <v>284418.2159</v>
+        <v>284516.7132</v>
       </c>
       <c r="L34" s="1">
-        <v>13.4725</v>
+        <v>13.4771</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -6727,10 +6730,10 @@
         <v>473467.338</v>
       </c>
       <c r="K35" s="1">
-        <v>281799.5519</v>
+        <v>281908.5139</v>
       </c>
       <c r="L35" s="1">
-        <v>13.4457</v>
+        <v>13.4509</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -6780,10 +6783,10 @@
         <v>491563.508</v>
       </c>
       <c r="K36" s="1">
-        <v>298206.3126</v>
+        <v>298315.2746</v>
       </c>
       <c r="L36" s="1">
-        <v>13.5995</v>
+        <v>13.6044</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -6833,10 +6836,10 @@
         <v>477918.2093</v>
       </c>
       <c r="K37" s="1">
-        <v>320845.6055</v>
+        <v>320954.5674</v>
       </c>
       <c r="L37" s="1">
-        <v>13.767</v>
+        <v>13.7717</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -6886,10 +6889,10 @@
         <v>468577.8105</v>
       </c>
       <c r="K38" s="1">
-        <v>356449.908</v>
+        <v>356558.8699</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9159</v>
+        <v>13.9201</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -7707,10 +7710,10 @@
         <v>143503.8551</v>
       </c>
       <c r="K15" s="1">
-        <v>127518.1561</v>
+        <v>127522.7445</v>
       </c>
       <c r="L15" s="1">
-        <v>13.4244</v>
+        <v>13.4249</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -7760,10 +7763,10 @@
         <v>139551.7636</v>
       </c>
       <c r="K16" s="1">
-        <v>144701.3305</v>
+        <v>144705.9189</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4892</v>
+        <v>13.4896</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -7813,10 +7816,10 @@
         <v>151238.5089</v>
       </c>
       <c r="K17" s="1">
-        <v>162936.8531</v>
+        <v>162941.4415</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3435</v>
+        <v>13.3439</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -7866,10 +7869,10 @@
         <v>161033.25</v>
       </c>
       <c r="K18" s="1">
-        <v>172936.8531</v>
+        <v>172941.4415</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2874</v>
+        <v>13.2878</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -7919,10 +7922,10 @@
         <v>183797.4816</v>
       </c>
       <c r="K19" s="1">
-        <v>182936.8531</v>
+        <v>182941.4415</v>
       </c>
       <c r="L19" s="1">
-        <v>13.237</v>
+        <v>13.2373</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -7972,10 +7975,10 @@
         <v>200512.6134</v>
       </c>
       <c r="K20" s="1">
-        <v>198793.6489</v>
+        <v>198798.2372</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2118</v>
+        <v>13.2121</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -8025,10 +8028,10 @@
         <v>218705.9024</v>
       </c>
       <c r="K21" s="1">
-        <v>206420.483</v>
+        <v>206425.0714</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2179</v>
+        <v>13.2182</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -8078,10 +8081,10 @@
         <v>247559.897</v>
       </c>
       <c r="K22" s="1">
-        <v>210293.2684</v>
+        <v>210297.8568</v>
       </c>
       <c r="L22" s="1">
-        <v>13.23</v>
+        <v>13.2303</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -8131,10 +8134,10 @@
         <v>269264.3371</v>
       </c>
       <c r="K23" s="1">
-        <v>210654.677</v>
+        <v>210659.2654</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2322</v>
+        <v>13.2325</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -8184,10 +8187,10 @@
         <v>255489.1685</v>
       </c>
       <c r="K24" s="1">
-        <v>211275.1926</v>
+        <v>211279.781</v>
       </c>
       <c r="L24" s="1">
-        <v>13.2376</v>
+        <v>13.2379</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -8237,10 +8240,10 @@
         <v>277237.0604</v>
       </c>
       <c r="K25" s="1">
-        <v>247640.251</v>
+        <v>247644.8394</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3308</v>
+        <v>13.331</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -8290,10 +8293,10 @@
         <v>288506.6803</v>
       </c>
       <c r="K26" s="1">
-        <v>255532.3656</v>
+        <v>255536.9539</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3548</v>
+        <v>13.355</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -8343,10 +8346,10 @@
         <v>296953.6154</v>
       </c>
       <c r="K27" s="1">
-        <v>266974.2848</v>
+        <v>266978.8731</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3897</v>
+        <v>13.39</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -8396,10 +8399,10 @@
         <v>341246.1857</v>
       </c>
       <c r="K28" s="1">
-        <v>281363.4437</v>
+        <v>281368.0321</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4264</v>
+        <v>13.4267</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -8449,10 +8452,10 @@
         <v>351902.875</v>
       </c>
       <c r="K29" s="1">
-        <v>268888.5285</v>
+        <v>268942.9782</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3484</v>
+        <v>13.3511</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -8502,10 +8505,10 @@
         <v>346816.2931</v>
       </c>
       <c r="K30" s="1">
-        <v>281363.7657</v>
+        <v>281418.2154</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4276</v>
+        <v>13.4301</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -8555,10 +8558,10 @@
         <v>394777.8149</v>
       </c>
       <c r="K31" s="1">
-        <v>309726.6856</v>
+        <v>309781.1353</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5328</v>
+        <v>13.5352</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -8608,10 +8611,10 @@
         <v>420721.9218</v>
       </c>
       <c r="K32" s="1">
-        <v>303832.1771</v>
+        <v>303910.179</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4993</v>
+        <v>13.5028</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -8661,10 +8664,10 @@
         <v>435867.9658</v>
       </c>
       <c r="K33" s="1">
-        <v>301356.6745</v>
+        <v>301444.5613</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4807</v>
+        <v>13.4846</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -8714,10 +8717,10 @@
         <v>476457.5246</v>
       </c>
       <c r="K34" s="1">
-        <v>309857.8383</v>
+        <v>309945.725</v>
       </c>
       <c r="L34" s="1">
-        <v>13.548</v>
+        <v>13.5518</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -8767,10 +8770,10 @@
         <v>481512.613</v>
       </c>
       <c r="K35" s="1">
-        <v>308065.9914</v>
+        <v>308161.0387</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5315</v>
+        <v>13.5356</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -8820,10 +8823,10 @@
         <v>500271.7231</v>
       </c>
       <c r="K36" s="1">
-        <v>326973.3295</v>
+        <v>327068.3768</v>
       </c>
       <c r="L36" s="1">
-        <v>13.6901</v>
+        <v>13.6941</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -8873,10 +8876,10 @@
         <v>484443.4004</v>
       </c>
       <c r="K37" s="1">
-        <v>352757.5134</v>
+        <v>352852.5607</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8592</v>
+        <v>13.863</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -8926,10 +8929,10 @@
         <v>473259.5349</v>
       </c>
       <c r="K38" s="1">
-        <v>392808.7918</v>
+        <v>392903.8391</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0036</v>
+        <v>14.007</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -10489,10 +10492,10 @@
         <v>353144.0011</v>
       </c>
       <c r="K29" s="1">
-        <v>290562.7697</v>
+        <v>290575.2084</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4773</v>
+        <v>13.4779</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -10542,10 +10545,10 @@
         <v>346949.1815</v>
       </c>
       <c r="K30" s="1">
-        <v>304865.0732</v>
+        <v>304877.5119</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5565</v>
+        <v>13.5571</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -10595,10 +10598,10 @@
         <v>397574.7549</v>
       </c>
       <c r="K31" s="1">
-        <v>333137.1508</v>
+        <v>333149.5895</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6447</v>
+        <v>13.6452</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -10648,10 +10651,10 @@
         <v>424781.0971</v>
       </c>
       <c r="K32" s="1">
-        <v>331180.9622</v>
+        <v>331201.2171</v>
       </c>
       <c r="L32" s="1">
-        <v>13.635</v>
+        <v>13.6358</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -10701,10 +10704,10 @@
         <v>440349.9907</v>
       </c>
       <c r="K33" s="1">
-        <v>329599.1058</v>
+        <v>329625.6771</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6246</v>
+        <v>13.6257</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -10754,10 +10757,10 @@
         <v>483495.5033</v>
       </c>
       <c r="K34" s="1">
-        <v>339936.7408</v>
+        <v>339963.3121</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6963</v>
+        <v>13.6974</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -10807,10 +10810,10 @@
         <v>488114.2778</v>
       </c>
       <c r="K35" s="1">
-        <v>339179.4736</v>
+        <v>339209.0711</v>
       </c>
       <c r="L35" s="1">
-        <v>13.6901</v>
+        <v>13.6913</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -10860,10 +10863,10 @@
         <v>507605.6185</v>
       </c>
       <c r="K36" s="1">
-        <v>360992.6239</v>
+        <v>361022.2214</v>
       </c>
       <c r="L36" s="1">
-        <v>13.85</v>
+        <v>13.8512</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -10913,10 +10916,10 @@
         <v>489334.8361</v>
       </c>
       <c r="K37" s="1">
-        <v>390419.6582</v>
+        <v>390449.2557</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0161</v>
+        <v>14.0172</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -10966,10 +10969,10 @@
         <v>476081.1265</v>
       </c>
       <c r="K38" s="1">
-        <v>435592.078</v>
+        <v>435621.6755</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1496</v>
+        <v>14.1505</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.479</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8386</v>
+        <v>13.8437</v>
       </c>
       <c r="E3" s="1">
-        <v>13.9159</v>
+        <v>13.9201</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0036</v>
+        <v>14.007</v>
       </c>
       <c r="G3" s="1">
-        <v>14.1496</v>
+        <v>14.1505</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>102016.3466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0089</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4292</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3142</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2045</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0929</v>
       </c>
     </row>
   </sheetData>
